--- a/TestData/TMTI0039712_OpportunityDetailspage_VerifyFunctionalityofViewandAddCounterpartiesbutton.xlsx
+++ b/TestData/TMTI0039712_OpportunityDetailspage_VerifyFunctionalityofViewandAddCounterpartiesbutton.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929C4844-EA8F-4A88-BEF4-C0F0BE13DCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5671E905-4093-4E18-B199-899E1DE905DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9945" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -26,17 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -98,9 +87,6 @@
     <t>110980</t>
   </si>
   <si>
-    <t>14302022093031</t>
-  </si>
-  <si>
     <t>Geller &amp; Company</t>
   </si>
   <si>
@@ -117,6 +103,9 @@
   </si>
   <si>
     <t>Alan Test</t>
+  </si>
+  <si>
+    <t>Swisscare</t>
   </si>
 </sst>
 </file>
@@ -457,13 +446,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -490,17 +479,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -518,17 +507,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -547,25 +536,25 @@
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J11" s="2"/>
     </row>
   </sheetData>
@@ -578,19 +567,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F94DFB-4724-4A5C-994B-DCCD1086734F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -601,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -609,10 +598,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -637,27 +626,27 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -669,23 +658,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7552AB4B-37A5-4D47-8C03-7FFC70E2819F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
